--- a/rest-db-kafka/src/test/resources/event-xls/CreateOrder-Event.xlsx
+++ b/rest-db-kafka/src/test/resources/event-xls/CreateOrder-Event.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\rest-db-kafka\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\rest-db-kafka\src\test\resources\event-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECEA608-53DD-4030-935C-918FF6743E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92A0345-8FBF-4DD1-929C-4313A7EA7715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderCreated-Event" sheetId="1" r:id="rId1"/>
@@ -190,11 +190,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -318,33 +325,34 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
@@ -569,7 +577,7 @@
   </sheetPr>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -738,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B8F9F1-284E-4A03-9CF1-DA17E9F6F966}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -822,7 +830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
@@ -835,7 +843,7 @@
       <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="12" t="s">
